--- a/ワードッチDBデータ.xlsx
+++ b/ワードッチDBデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmmk/Private/wordch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7384F85A-1884-7147-AEFE-047691850CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D6136-676E-8745-A065-43CCFAC2DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="1" xr2:uid="{1CF0835D-3893-0B4C-9BA8-8A41CA7AFB29}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="theme" sheetId="1" r:id="rId1"/>
     <sheet name="default_value" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>ファンタジーの世界に出てきそうな魔法の呪文</t>
   </si>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,20 +786,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CBBC39-D82C-2545-BD95-26811929495D}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1"/>
     <col min="2" max="2" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -812,8 +814,11 @@
       <c r="D1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -823,424 +828,865 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="2">
+        <f ca="1">NOW()</f>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D49" ca="1" si="0">NOW()</f>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="C51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1251,18 +1697,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2CCA3-F27A-9C4F-AEFF-B1E0D89AB8C8}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D37" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1275,11 +1722,8 @@
       <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1289,11 +1733,12 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D37" ca="1" si="0">NOW()</f>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1303,11 +1748,12 @@
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1317,11 +1763,12 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1331,11 +1778,12 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1345,11 +1793,12 @@
       <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1359,11 +1808,12 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1373,11 +1823,12 @@
       <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1387,11 +1838,12 @@
       <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1401,11 +1853,12 @@
       <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1415,11 +1868,12 @@
       <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1429,11 +1883,12 @@
       <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1443,11 +1898,12 @@
       <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1457,11 +1913,12 @@
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1471,11 +1928,12 @@
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1485,11 +1943,12 @@
       <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1499,11 +1958,12 @@
       <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1513,11 +1973,12 @@
       <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1527,11 +1988,12 @@
       <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1541,11 +2003,12 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1555,11 +2018,12 @@
       <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1569,11 +2033,12 @@
       <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1583,11 +2048,12 @@
       <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1597,11 +2063,12 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1611,11 +2078,12 @@
       <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1625,11 +2093,12 @@
       <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1639,11 +2108,12 @@
       <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1653,11 +2123,12 @@
       <c r="C28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1667,11 +2138,12 @@
       <c r="C29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1681,11 +2153,12 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1695,11 +2168,12 @@
       <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1709,11 +2183,12 @@
       <c r="C32" t="s">
         <v>87</v>
       </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1723,11 +2198,12 @@
       <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="D33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1737,11 +2213,12 @@
       <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1751,11 +2228,12 @@
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="E35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1765,11 +2243,12 @@
       <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="D36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1779,8 +2258,9 @@
       <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="E37" t="s">
-        <v>91</v>
+      <c r="D37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45447.729464004631</v>
       </c>
     </row>
   </sheetData>
